--- a/biology/Médecine/1441_en_santé_et_médecine/1441_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1441_en_santé_et_médecine/1441_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1441_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1441_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1441 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1441_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1441_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7 juin : à la requête de l'archevêque Pey Berland, le pape Eugène IV fonde l'université (studium generale) de Bordeaux, où, avec la théologie, l'art et le droit, la médecine est enseignée dès l'origine[1].
-29 décembre : Hug Descolomer fonde par testament à Vilanova de Palafolls, ancien nom de Malgrat de Mar, en Catalogne, un hôpital destiné à recevoir les indigents et les malades des environs, qui ouvrira en 1443, et accueillera en 1979 la « communauté thérapeutique de Malgrat » (Comunitat Terapèutica de Malgrat (ca)), institution dédiée au traitement des malades atteints de troubles mentaux [2].
-Fondation de l'Ordre royal des pharmaciens de Valence, en Espagne[3].
-Le service médical de la ville de Mons, capitale du Hainaut, comprend trois médecins et quatre chirurgiens[4].
-En fondant le King's College de Cambridge, sur un total de soixante-dix places, le roi Henri VI n'en réserve que deux aux étudiants en médecine[5].
-Attestée à Capodistria, alors possession de la Sérénissime, la pharmacie au Phénix (Alla Fenice), propriété de la famille Palma, restera en activité jusqu'en 1959[6].
-1441-1443 : fondation de la maison-Dieu d'Autun en Bourgogne par le chancelier Rolin[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7 juin : à la requête de l'archevêque Pey Berland, le pape Eugène IV fonde l'université (studium generale) de Bordeaux, où, avec la théologie, l'art et le droit, la médecine est enseignée dès l'origine.
+29 décembre : Hug Descolomer fonde par testament à Vilanova de Palafolls, ancien nom de Malgrat de Mar, en Catalogne, un hôpital destiné à recevoir les indigents et les malades des environs, qui ouvrira en 1443, et accueillera en 1979 la « communauté thérapeutique de Malgrat » (Comunitat Terapèutica de Malgrat (ca)), institution dédiée au traitement des malades atteints de troubles mentaux .
+Fondation de l'Ordre royal des pharmaciens de Valence, en Espagne.
+Le service médical de la ville de Mons, capitale du Hainaut, comprend trois médecins et quatre chirurgiens.
+En fondant le King's College de Cambridge, sur un total de soixante-dix places, le roi Henri VI n'en réserve que deux aux étudiants en médecine.
+Attestée à Capodistria, alors possession de la Sérénissime, la pharmacie au Phénix (Alla Fenice), propriété de la famille Palma, restera en activité jusqu'en 1959.
+1441-1443 : fondation de la maison-Dieu d'Autun en Bourgogne par le chancelier Rolin.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1441_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1441_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1441 ou 1444[8] : Antonio de Nebrija (mort en 1522), historiographe du Roi catholique, auteur d'un Lexicon artis medicamentariae publié à Alcalá de Henares en 1518[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1441 ou 1444 : Antonio de Nebrija (mort en 1522), historiographe du Roi catholique, auteur d'un Lexicon artis medicamentariae publié à Alcalá de Henares en 1518.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1441_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1441_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant le 26 juillet : Nicolas Burguet (né à une date inconnue), clerc du diocèse de Rouen, reçu docteur en médecine à Paris[10].
-Septembre : Antonio Cermisone (it) (né à une date inconnue), médecin italien, professeur à Padoue et Pavie, auteur de divers traités de médecine[11].
-Jean Riparia (né à une date inconnue), reçu docteur en médecine à Poitiers[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant le 26 juillet : Nicolas Burguet (né à une date inconnue), clerc du diocèse de Rouen, reçu docteur en médecine à Paris.
+Septembre : Antonio Cermisone (it) (né à une date inconnue), médecin italien, professeur à Padoue et Pavie, auteur de divers traités de médecine.
+Jean Riparia (né à une date inconnue), reçu docteur en médecine à Poitiers.
 </t>
         </is>
       </c>
